--- a/Projects/三角函数曲线.xlsx
+++ b/Projects/三角函数曲线.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="正弦波" sheetId="1" r:id="rId1"/>
     <sheet name="余弦波" sheetId="2" r:id="rId2"/>
+    <sheet name="正切" sheetId="3" r:id="rId3"/>
+    <sheet name="余切" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SIN值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +42,22 @@
   </si>
   <si>
     <t>COS值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,14 +135,15 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -155,17 +174,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.4428258967629047E-2"/>
-          <c:y val="2.5428331875182269E-2"/>
-          <c:w val="0.88667547351283071"/>
-          <c:h val="0.77222222222222225"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -173,54 +182,22 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="6350" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>正弦波!$A$2:$A$361</c:f>
+              <c:f>正弦波!$A$2:$A$721</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="360"/>
+                <c:ptCount val="720"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1300,16 +1277,1096 @@
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>720</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>正弦波!$B$2:$B$361</c:f>
+              <c:f>正弦波!$B$2:$B$721</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="360"/>
+                <c:ptCount val="720"/>
                 <c:pt idx="0">
                   <c:v>1.7452406437283512E-2</c:v>
                 </c:pt>
@@ -2389,6 +3446,1086 @@
                 </c:pt>
                 <c:pt idx="359">
                   <c:v>-2.45029690981724E-16</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.7452406437283071E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3.4899496702500331E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>5.2335956242943883E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>6.975647374412515E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>8.7155742747658707E-2</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.10452846326765293</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.12186934340514763</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.13917310096006452</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.15643446504023062</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.17364817766692991</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.19080899537654505</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.20791169081775851</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.22495105434386484</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.24192189559966823</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.25881904510252024</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.27563735581699933</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.29237170472273666</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.30901699437494717</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.32556815445715626</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.34202014332566893</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.35836794954529949</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.3746065934159119</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.39073112848927261</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.40673664307579971</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.42261826174069955</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.43837114678907735</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.45399049973954736</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.46947156278589036</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.48480962024633723</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.49999999999999928</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.51503807491005404</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.52991926423320468</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.54463903501502664</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.55919290347074624</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.57357643635104605</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.58778525229247358</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.60181502315204793</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.6156614753256584</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.62932039104983684</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.64278760968653914</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.65605902899050705</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.66913060635885846</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.68199836006249792</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.69465837045899725</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.70710678118654668</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.71933980033865086</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.73135370161917068</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.74314482547739369</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.7547095802227719</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.76604444311897779</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.77714596145697112</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0.78801075360672146</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0.79863551004729283</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0.80901699437494679</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.81915204428899147</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0.82903757255504185</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0.83867056794542405</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0.84804809615642585</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.85716730070211211</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0.86602540378443882</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0.87461970713939541</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0.88294759285892688</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0.89100652418836768</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0.89879404629916682</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.90630778703664971</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0.91354545764260087</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0.9205048534524406</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0.9271838545667872</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.93358042649720185</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0.93969262078590809</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0.94551857559931674</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0.95105651629515353</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0.95630475596303555</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0.96126169593831867</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0.96592582628906831</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0.97029572627599625</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0.97437006478523513</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0.97814760073380569</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0.98162718344766375</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0.98768834059513766</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>0.99026806874157036</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>0.99254615164132198</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>0.99452189536827329</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>0.99619469809174543</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>0.9975640502598242</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>0.99862953475457383</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>0.99939082701909576</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>0.99984769515639127</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>0.99984769515639127</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>0.99939082701909576</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>0.99862953475457383</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>0.99756405025982431</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>0.99619469809174555</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>0.9945218953682734</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>0.99254615164132198</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>0.99026806874157047</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>0.98768834059513788</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>0.98480775301220813</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>0.98162718344766386</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>0.97814760073380547</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>0.97437006478523525</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>0.97029572627599636</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>0.96592582628906842</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>0.96126169593831889</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>0.95630475596303577</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>0.95105651629515364</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>0.94551857559931729</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>0.93969262078590865</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>0.93358042649720174</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>0.92718385456678787</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>0.92050485345244049</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>0.91354545764260076</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>0.90630778703665027</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>0.89879404629916704</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>0.89100652418836757</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>0.88294759285892721</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>0.87461970713939574</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>0.86602540378443915</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>0.85716730070211244</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>0.84804809615642573</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>0.83867056794542438</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>0.82903757255504162</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>0.81915204428899235</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>0.80901699437494767</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>0.79863551004729372</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>0.78801075360672246</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>0.7771459614569709</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>0.76604444311897879</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>0.75470958022277224</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>0.74314482547739402</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>0.73135370161916979</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>0.71933980033865119</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>0.70710678118654713</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>0.6946583704589977</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>0.68199836006249837</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>0.6691306063588589</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>0.6560590289905075</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>0.64278760968654036</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>0.62932039104983795</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>0.61566147532565829</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>0.60181502315204916</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>0.58778525229247336</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>0.57357643635104727</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>0.55919290347074746</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>0.54463903501502708</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>0.52991926423320446</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>0.5150380749100546</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>0.49999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>0.48480962024633778</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>0.46947156278589092</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>0.4539904997395463</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>0.4383711467890779</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>0.42261826174069933</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>0.4067366430758011</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>0.39073112848927399</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>0.37460659341591329</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>0.35836794954530088</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>0.34202014332566871</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>0.32556815445715764</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>0.30901699437494778</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>0.29237170472273638</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>0.27563735581699822</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>0.25881904510252079</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>0.24192189559966712</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>0.22495105434386545</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>0.20791169081775912</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>0.19080899537654564</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>0.1736481776669305</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>0.15643446504023209</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>0.13917310096006599</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>0.12186934340514911</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>0.10452846326765443</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>8.7155742747658443E-2</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>6.9756473744126649E-2</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>5.2335956242944494E-2</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>3.4899496702500941E-2</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>1.7452406437282793E-2</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>3.67544536472586E-16</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>-1.7452406437283834E-2</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>-3.4899496702500206E-2</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>-5.2335956242943758E-2</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>-6.9756473744125913E-2</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>-8.7155742747657708E-2</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>-0.10452846326765369</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>-0.12186934340514662</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>-0.13917310096006527</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>-0.15643446504022962</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>-0.17364817766692978</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>-0.19080899537654319</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>-0.2079116908177584</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>-0.22495105434386473</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>-0.24192189559966812</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>-0.25881904510252185</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>-0.27563735581699922</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>-0.29237170472273738</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>-0.30901699437494706</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>-0.32556815445715698</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>-0.34202014332566799</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>-0.35836794954530021</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>-0.37460659341591096</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>-0.39073112848927333</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>-0.40673664307579876</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>-0.42261826174069866</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>-0.43837114678907724</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>-0.45399049973954564</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>-0.46947156278589025</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>-0.48480962024633711</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>-0.50000000000000067</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>-0.51503807491005393</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>-0.52991926423320534</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>-0.54463903501502653</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>-0.55919290347074679</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>-0.57357643635104516</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>-0.5877852522924728</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>-0.60181502315204849</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>-0.61566147532565763</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>-0.62932039104983739</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>-0.64278760968653836</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>-0.65605902899050694</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>-0.66913060635885702</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>-0.68199836006249781</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>-0.69465837045899714</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>-0.70710678118654791</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>-0.71933980033865075</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>-0.73135370161917057</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>-0.7431448254773948</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>-0.75470958022277179</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>-0.76604444311897824</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>-0.77714596145697046</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>-0.7880107536067219</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>-0.79863551004729216</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>-0.80901699437494723</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>-0.81915204428899091</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>-0.82903757255504129</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>-0.83867056794542305</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>-0.84804809615642529</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>-0.857167300702112</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>-0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>-0.87461970713939619</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>-0.88294759285892688</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>-0.89100652418836812</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>-0.8987940462991667</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>-0.90630778703665005</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>-0.91354545764260053</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>-0.92050485345244015</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>-0.92718385456678687</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>-0.93358042649720152</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>-0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>-0.9455185755993164</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>-0.95105651629515342</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>-0.95630475596303499</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>-0.96126169593831867</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>-0.9659258262890682</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>-0.97029572627599658</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>-0.97437006478523513</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>-0.97814760073380569</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>-0.98162718344766409</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>-0.98768834059513777</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>-0.99026806874157025</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>-0.99254615164132209</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>-0.99452189536827318</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>-0.99619469809174555</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>-0.9975640502598242</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>-0.99862953475457383</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>-0.99939082701909565</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>-0.99984769515639127</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>-0.99984769515639127</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>-0.99939082701909576</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>-0.99862953475457383</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>-0.9975640502598242</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>-0.99619469809174555</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>-0.99452189536827329</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>-0.99254615164132209</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>-0.99026806874157036</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>-0.98768834059513788</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>-0.98480775301220813</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>-0.98162718344766398</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>-0.9781476007338058</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>-0.97437006478523536</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>-0.97029572627599681</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>-0.96592582628906842</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>-0.96126169593831889</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>-0.95630475596303532</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>-0.95105651629515375</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>-0.94551857559931674</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>-0.93969262078590865</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>-0.93358042649720185</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>-0.92718385456678787</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>-0.92050485345243982</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>-0.91354545764260087</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>-0.90630778703665038</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>-0.89879404629916793</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>-0.89100652418836768</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>-0.88294759285892721</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>-0.87461970713939663</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>-0.86602540378443915</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>-0.85716730070211244</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>-0.84804809615642585</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>-0.83867056794542438</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>-0.82903757255504174</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>-0.81915204428899147</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>-0.80901699437494767</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>-0.79863551004729372</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>-0.78801075360672135</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>-0.77714596145697101</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>-0.76604444311897879</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>-0.75470958022277357</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>-0.74314482547739413</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>-0.73135370161917113</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>-0.71933980033865252</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>-0.70710678118654724</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>-0.69465837045899781</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>-0.68199836006249848</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>-0.66913060635885901</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>-0.65605902899050761</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>-0.64278760968653903</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>-0.62932039104983806</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>-0.61566147532565973</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>-0.60181502315204782</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>-0.58778525229247347</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>-0.57357643635104738</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>-0.55919290347074602</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>-0.5446390350150272</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>-0.52991926423320601</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>-0.51503807491005626</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>-0.49999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>-0.48480962024633789</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>-0.46947156278589103</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>-0.45399049973954803</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>-0.43837114678907801</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>-0.42261826174069944</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>-0.40673664307580121</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>-0.39073112848927244</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>-0.37460659341591174</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>-0.35836794954530099</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>-0.34202014332567049</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>-0.32556815445715609</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>-0.3090169943749479</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>-0.29237170472273821</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>-0.27563735581700005</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>-0.25881904510252096</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>-0.24192189559966895</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>-0.22495105434386556</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>-0.20791169081775923</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>-0.19080899537654578</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>-0.17364817766693064</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>-0.15643446504023223</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>-0.13917310096006436</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>-0.12186934340514748</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>-0.10452846326765454</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>-8.7155742747656792E-2</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>-6.9756473744124997E-2</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>-5.2335956242944619E-2</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>-3.4899496702502843E-2</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>-1.7452406437282918E-2</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>-4.90059381963448E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2403,11 +4540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1510423728"/>
-        <c:axId val="-1510430800"/>
+        <c:axId val="-1264760336"/>
+        <c:axId val="-1264758160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1510423728"/>
+        <c:axId val="-1264760336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2434,13 +4571,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2463,12 +4595,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510430800"/>
+        <c:crossAx val="-1264758160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1510430800"/>
+        <c:axId val="-1264758160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +4656,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510423728"/>
+        <c:crossAx val="-1264760336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2583,10 +4715,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="3"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2635,53 +4767,11 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>余弦波!$A$2:$A$721</c:f>
@@ -7030,11 +9120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1594203136"/>
-        <c:axId val="-1594202592"/>
+        <c:axId val="-1512403904"/>
+        <c:axId val="-1512402816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1594203136"/>
+        <c:axId val="-1512403904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7061,9 +9151,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:noFill/>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7086,12 +9175,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1594202592"/>
+        <c:crossAx val="-1512402816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1594202592"/>
+        <c:axId val="-1512402816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7147,7 +9236,1633 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1594203136"/>
+        <c:crossAx val="-1512403904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>正切!$A$2:$A$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>正切!$B$2:$B$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>1.5574077246549023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1850398632615189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1425465430742778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1578212823495775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.3805150062465859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29100619138474915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87144798272431878</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.799711455220379</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.45231565944180985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64836082745908663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-225.95084645419516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.63585992866158081</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46302113293648961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2446066160948055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.85599340090851872</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30063224202390337</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4939156454748401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.1373137123376869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15158947061240008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2371609442247422</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5274985276366035</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.8516560416844609E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5881530833912738</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.1348966977217008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.13352640702153587</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1787535542062797</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.2737038004281191</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.28142960456426525</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88714284379821506</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.4053311966462756</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.44169556802069798</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66100604148376307</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-75.313014800085085</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.62349896271622551</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.473814720414451</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.7504709056991477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.84077125540275965</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.31030966099480101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.6145544071015352</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1172149309238959</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.16065669868064283</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2913879924374863</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.4983873388551707</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7704699278685773E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6197751905438615</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.0866135311213818</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.1245275681327372</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2001272431162864</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.1729085521591909</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.27190061199763077</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.90308614937543108</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-6.0532723827928381</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.43115819671956412</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.67380010064805984</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-45.183087910521131</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.6112736881917098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.48469922679209587</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.3308568524904576</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.8257740091968151</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.32004038937956297</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7431679442724195</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.0975097786622852</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.16974975208268753</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.3478603091954366</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.4700382576631723</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.6560517776039391E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6523172640102353</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.0400815980159464</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.11554854579453279</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2219599181369434</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.0776204031933601</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.26241737750193517</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.91928640440360776</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-5.7370225392789989</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.42070095062112434</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.68674768935152275</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-32.268575775934416</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.59917999834111513</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.49567753318135577</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.0036549456070798</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.81099441583189424</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.32982640650767975</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.880596310384246</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.0781838051640156</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.17887017243876716</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.4067297096422102</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.4424174716642324</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.5420501339376929E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.6858253705060158</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.9952004122082421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1510428080"/>
+        <c:axId val="-1510429168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1510428080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1510429168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1510429168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="-90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1510428080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>余切!$A$2:$A$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>余切!$B$2:$B$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>0.64209261593433065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45765755436028577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.0152525514345339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86369115445061673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.29581291553274552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.4363530041801278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1475154224051356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14706506394948049</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2108454109991951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5423510453569202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.4257413313241135E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.5726734063976893</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1597286362675918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13803371984040846</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.1682333052318372</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3263231956354491</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28621183264546018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.87926487577869261</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5967642472801113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4469951089489167</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.65466511548605755</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>112.97321035643191</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62966222240027581</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.46840673886805423</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.4891553087226752</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84835375166555116</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.30546441002671798</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.5532864481271984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1272141876482913</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.15611995216165922</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.2640027937820282</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5128454768057729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.3277917537286932E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.6038519064146899</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1105296161446585</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.12902441827949715</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.189384144110593</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2225873883338561</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27665927452504085</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.89508291763791281</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.224452563835035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.43641670607527289</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.66738417635325253</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56.482179350195118</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.61736962378355509</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.47924543049549906</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.0303503472747</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83324497942682307</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.31516823871885358</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.677814450850569</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1073140704146487</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.16519990127036435</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.3193343130396857</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4841196952007008</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.2132174807980409E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.6359284217814665</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0631351252989192</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.12003567192503808</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.2109850744426371</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1246056222423082</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.2671533884901271</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.91115361288066488</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.8910248040473467</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.42591971766100489</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.6802544048000746</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>37.649868441273902</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.60521064675736846</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.49017647184923213</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-8.6543711400590837</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.81835744786510367</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.32492636160144805</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-3.8107232437098251</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0878002711774637</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.17430644435391657</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.3769853586582026</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4561388636695274</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.0989901969760626E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.6689475662882471</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0174406404538927</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.11106600664299159</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.2330541129241062</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.0318979325771958</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.25769235447759903</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.92748564318110671</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.5906470395019676</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.4155015812509591</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.69328056519325154</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28.232237325458215</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.5931812496687251</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.50120278338015323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1996088912"/>
+        <c:axId val="-1996094896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1996088912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1996094896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1996094896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1996088912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7200,35 +10915,162 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
   <cs:variation>
-    <a:tint val="88500"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="55000"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="75000"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="98500"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="30000"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="60000"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="80000"/>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -8308,24 +12150,1064 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8347,16 +13229,86 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8643,8 +13595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B721"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="R133" sqref="R133"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8671,7 +13623,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B65" si="0">SIN($A:$A*PI()/180)</f>
+        <f t="shared" ref="B3:B66" si="0">SIN($A:$A*PI()/180)</f>
         <v>3.4899496702500969E-2</v>
       </c>
     </row>
@@ -9238,7 +14190,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B129" si="1">SIN($A:$A*PI()/180)</f>
+        <f t="shared" si="0"/>
         <v>0.90630778703664994</v>
       </c>
     </row>
@@ -9247,7 +14199,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B67:B130" si="1">SIN($A:$A*PI()/180)</f>
         <v>0.91354545764260087</v>
       </c>
     </row>
@@ -9814,7 +14766,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <f t="shared" ref="B130:B193" si="2">SIN($A:$A*PI()/180)</f>
+        <f t="shared" si="1"/>
         <v>0.77714596145697101</v>
       </c>
     </row>
@@ -9823,7 +14775,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B131:B194" si="2">SIN($A:$A*PI()/180)</f>
         <v>0.76604444311897801</v>
       </c>
     </row>
@@ -10390,7 +15342,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <f t="shared" ref="B194:B257" si="3">SIN($A:$A*PI()/180)</f>
+        <f t="shared" si="2"/>
         <v>-0.22495105434386498</v>
       </c>
     </row>
@@ -10399,7 +15351,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B195:B258" si="3">SIN($A:$A*PI()/180)</f>
         <v>-0.24192189559966751</v>
       </c>
     </row>
@@ -10966,7 +15918,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:B321" si="4">SIN($A:$A*PI()/180)</f>
+        <f t="shared" si="3"/>
         <v>-0.97437006478523513</v>
       </c>
     </row>
@@ -10975,7 +15927,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B259:B322" si="4">SIN($A:$A*PI()/180)</f>
         <v>-0.97814760073380558</v>
       </c>
     </row>
@@ -11542,7 +16494,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <f t="shared" ref="B322:B361" si="5">SIN($A:$A*PI()/180)</f>
+        <f t="shared" si="4"/>
         <v>-0.62932039104983784</v>
       </c>
     </row>
@@ -11551,7 +16503,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B323:B386" si="5">SIN($A:$A*PI()/180)</f>
         <v>-0.61566147532565885</v>
       </c>
     </row>
@@ -11902,7 +16854,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <f t="shared" ref="B362:B425" si="6">SIN($A:$A*PI()/180)</f>
+        <f t="shared" si="5"/>
         <v>1.7452406437283071E-2</v>
       </c>
     </row>
@@ -11911,7 +16863,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.4899496702500331E-2</v>
       </c>
     </row>
@@ -11920,7 +16872,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.2335956242943883E-2</v>
       </c>
     </row>
@@ -11929,7 +16881,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.975647374412515E-2</v>
       </c>
     </row>
@@ -11938,7 +16890,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.7155742747658707E-2</v>
       </c>
     </row>
@@ -11947,7 +16899,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.10452846326765293</v>
       </c>
     </row>
@@ -11956,7 +16908,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.12186934340514763</v>
       </c>
     </row>
@@ -11965,7 +16917,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.13917310096006452</v>
       </c>
     </row>
@@ -11974,7 +16926,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.15643446504023062</v>
       </c>
     </row>
@@ -11983,7 +16935,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.17364817766692991</v>
       </c>
     </row>
@@ -11992,7 +16944,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.19080899537654505</v>
       </c>
     </row>
@@ -12001,7 +16953,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.20791169081775851</v>
       </c>
     </row>
@@ -12010,7 +16962,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.22495105434386484</v>
       </c>
     </row>
@@ -12019,7 +16971,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.24192189559966823</v>
       </c>
     </row>
@@ -12028,7 +16980,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.25881904510252024</v>
       </c>
     </row>
@@ -12037,7 +16989,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.27563735581699933</v>
       </c>
     </row>
@@ -12046,7 +16998,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.29237170472273666</v>
       </c>
     </row>
@@ -12055,7 +17007,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.30901699437494717</v>
       </c>
     </row>
@@ -12064,7 +17016,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.32556815445715626</v>
       </c>
     </row>
@@ -12073,7 +17025,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.34202014332566893</v>
       </c>
     </row>
@@ -12082,7 +17034,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.35836794954529949</v>
       </c>
     </row>
@@ -12091,7 +17043,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3746065934159119</v>
       </c>
     </row>
@@ -12100,7 +17052,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.39073112848927261</v>
       </c>
     </row>
@@ -12109,7 +17061,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.40673664307579971</v>
       </c>
     </row>
@@ -12118,7 +17070,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.42261826174069955</v>
       </c>
     </row>
@@ -12127,7 +17079,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B387:B450" si="6">SIN($A:$A*PI()/180)</f>
         <v>0.43837114678907735</v>
       </c>
     </row>
@@ -12478,7 +17430,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <f t="shared" ref="B426:B489" si="7">SIN($A:$A*PI()/180)</f>
+        <f t="shared" si="6"/>
         <v>0.90630778703664971</v>
       </c>
     </row>
@@ -12487,7 +17439,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.91354545764260087</v>
       </c>
     </row>
@@ -12496,7 +17448,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.9205048534524406</v>
       </c>
     </row>
@@ -12505,7 +17457,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.9271838545667872</v>
       </c>
     </row>
@@ -12514,7 +17466,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.93358042649720185</v>
       </c>
     </row>
@@ -12523,7 +17475,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.93969262078590809</v>
       </c>
     </row>
@@ -12532,7 +17484,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.94551857559931674</v>
       </c>
     </row>
@@ -12541,7 +17493,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.95105651629515353</v>
       </c>
     </row>
@@ -12550,7 +17502,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.95630475596303555</v>
       </c>
     </row>
@@ -12559,7 +17511,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.96126169593831867</v>
       </c>
     </row>
@@ -12568,7 +17520,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.96592582628906831</v>
       </c>
     </row>
@@ -12577,7 +17529,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.97029572627599625</v>
       </c>
     </row>
@@ -12586,7 +17538,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.97437006478523513</v>
       </c>
     </row>
@@ -12595,7 +17547,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.97814760073380569</v>
       </c>
     </row>
@@ -12604,7 +17556,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.98162718344766375</v>
       </c>
     </row>
@@ -12613,7 +17565,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
@@ -12622,7 +17574,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.98768834059513766</v>
       </c>
     </row>
@@ -12631,7 +17583,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.99026806874157036</v>
       </c>
     </row>
@@ -12640,7 +17592,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.99254615164132198</v>
       </c>
     </row>
@@ -12649,7 +17601,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.99452189536827329</v>
       </c>
     </row>
@@ -12658,7 +17610,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.99619469809174543</v>
       </c>
     </row>
@@ -12667,7 +17619,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.9975640502598242</v>
       </c>
     </row>
@@ -12676,7 +17628,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.99862953475457383</v>
       </c>
     </row>
@@ -12685,7 +17637,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.99939082701909576</v>
       </c>
     </row>
@@ -12694,7 +17646,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.99984769515639127</v>
       </c>
     </row>
@@ -12703,7 +17655,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B451:B514" si="7">SIN($A:$A*PI()/180)</f>
         <v>1</v>
       </c>
     </row>
@@ -13054,7 +18006,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <f t="shared" ref="B490:B553" si="8">SIN($A:$A*PI()/180)</f>
+        <f t="shared" si="7"/>
         <v>0.7771459614569709</v>
       </c>
     </row>
@@ -13063,7 +18015,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.76604444311897879</v>
       </c>
     </row>
@@ -13072,7 +18024,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.75470958022277224</v>
       </c>
     </row>
@@ -13081,7 +18033,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.74314482547739402</v>
       </c>
     </row>
@@ -13090,7 +18042,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.73135370161916979</v>
       </c>
     </row>
@@ -13099,7 +18051,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.71933980033865119</v>
       </c>
     </row>
@@ -13108,7 +18060,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.70710678118654713</v>
       </c>
     </row>
@@ -13117,7 +18069,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.6946583704589977</v>
       </c>
     </row>
@@ -13126,7 +18078,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.68199836006249837</v>
       </c>
     </row>
@@ -13135,7 +18087,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.6691306063588589</v>
       </c>
     </row>
@@ -13144,7 +18096,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.6560590289905075</v>
       </c>
     </row>
@@ -13153,7 +18105,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.64278760968654036</v>
       </c>
     </row>
@@ -13162,7 +18114,7 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.62932039104983795</v>
       </c>
     </row>
@@ -13171,7 +18123,7 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.61566147532565829</v>
       </c>
     </row>
@@ -13180,7 +18132,7 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.60181502315204916</v>
       </c>
     </row>
@@ -13189,7 +18141,7 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.58778525229247336</v>
       </c>
     </row>
@@ -13198,7 +18150,7 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.57357643635104727</v>
       </c>
     </row>
@@ -13207,7 +18159,7 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.55919290347074746</v>
       </c>
     </row>
@@ -13216,7 +18168,7 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.54463903501502708</v>
       </c>
     </row>
@@ -13225,7 +18177,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.52991926423320446</v>
       </c>
     </row>
@@ -13234,7 +18186,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.5150380749100546</v>
       </c>
     </row>
@@ -13243,7 +18195,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.49999999999999978</v>
       </c>
     </row>
@@ -13252,7 +18204,7 @@
         <v>511</v>
       </c>
       <c r="B512">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.48480962024633778</v>
       </c>
     </row>
@@ -13261,7 +18213,7 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.46947156278589092</v>
       </c>
     </row>
@@ -13270,7 +18222,7 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.4539904997395463</v>
       </c>
     </row>
@@ -13279,7 +18231,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B515:B578" si="8">SIN($A:$A*PI()/180)</f>
         <v>0.4383711467890779</v>
       </c>
     </row>
@@ -13630,7 +18582,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <f t="shared" ref="B554:B617" si="9">SIN($A:$A*PI()/180)</f>
+        <f t="shared" si="8"/>
         <v>-0.22495105434386473</v>
       </c>
     </row>
@@ -13639,7 +18591,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.24192189559966812</v>
       </c>
     </row>
@@ -13648,7 +18600,7 @@
         <v>555</v>
       </c>
       <c r="B556">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.25881904510252185</v>
       </c>
     </row>
@@ -13657,7 +18609,7 @@
         <v>556</v>
       </c>
       <c r="B557">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.27563735581699922</v>
       </c>
     </row>
@@ -13666,7 +18618,7 @@
         <v>557</v>
       </c>
       <c r="B558">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.29237170472273738</v>
       </c>
     </row>
@@ -13675,7 +18627,7 @@
         <v>558</v>
       </c>
       <c r="B559">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.30901699437494706</v>
       </c>
     </row>
@@ -13684,7 +18636,7 @@
         <v>559</v>
       </c>
       <c r="B560">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.32556815445715698</v>
       </c>
     </row>
@@ -13693,7 +18645,7 @@
         <v>560</v>
       </c>
       <c r="B561">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.34202014332566799</v>
       </c>
     </row>
@@ -13702,7 +18654,7 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.35836794954530021</v>
       </c>
     </row>
@@ -13711,7 +18663,7 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.37460659341591096</v>
       </c>
     </row>
@@ -13720,7 +18672,7 @@
         <v>563</v>
       </c>
       <c r="B564">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.39073112848927333</v>
       </c>
     </row>
@@ -13729,7 +18681,7 @@
         <v>564</v>
       </c>
       <c r="B565">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.40673664307579876</v>
       </c>
     </row>
@@ -13738,7 +18690,7 @@
         <v>565</v>
       </c>
       <c r="B566">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.42261826174069866</v>
       </c>
     </row>
@@ -13747,7 +18699,7 @@
         <v>566</v>
       </c>
       <c r="B567">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.43837114678907724</v>
       </c>
     </row>
@@ -13756,7 +18708,7 @@
         <v>567</v>
       </c>
       <c r="B568">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.45399049973954564</v>
       </c>
     </row>
@@ -13765,7 +18717,7 @@
         <v>568</v>
       </c>
       <c r="B569">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.46947156278589025</v>
       </c>
     </row>
@@ -13774,7 +18726,7 @@
         <v>569</v>
       </c>
       <c r="B570">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.48480962024633711</v>
       </c>
     </row>
@@ -13783,7 +18735,7 @@
         <v>570</v>
       </c>
       <c r="B571">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.50000000000000067</v>
       </c>
     </row>
@@ -13792,7 +18744,7 @@
         <v>571</v>
       </c>
       <c r="B572">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.51503807491005393</v>
       </c>
     </row>
@@ -13801,7 +18753,7 @@
         <v>572</v>
       </c>
       <c r="B573">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.52991926423320534</v>
       </c>
     </row>
@@ -13810,7 +18762,7 @@
         <v>573</v>
       </c>
       <c r="B574">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.54463903501502653</v>
       </c>
     </row>
@@ -13819,7 +18771,7 @@
         <v>574</v>
       </c>
       <c r="B575">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.55919290347074679</v>
       </c>
     </row>
@@ -13828,7 +18780,7 @@
         <v>575</v>
       </c>
       <c r="B576">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.57357643635104516</v>
       </c>
     </row>
@@ -13837,7 +18789,7 @@
         <v>576</v>
       </c>
       <c r="B577">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.5877852522924728</v>
       </c>
     </row>
@@ -13846,7 +18798,7 @@
         <v>577</v>
       </c>
       <c r="B578">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.60181502315204849</v>
       </c>
     </row>
@@ -13855,7 +18807,7 @@
         <v>578</v>
       </c>
       <c r="B579">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B579:B642" si="9">SIN($A:$A*PI()/180)</f>
         <v>-0.61566147532565763</v>
       </c>
     </row>
@@ -14206,7 +19158,7 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <f t="shared" ref="B618:B681" si="10">SIN($A:$A*PI()/180)</f>
+        <f t="shared" si="9"/>
         <v>-0.97437006478523513</v>
       </c>
     </row>
@@ -14215,7 +19167,7 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.97814760073380569</v>
       </c>
     </row>
@@ -14224,7 +19176,7 @@
         <v>619</v>
       </c>
       <c r="B620">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.98162718344766409</v>
       </c>
     </row>
@@ -14233,7 +19185,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
@@ -14242,7 +19194,7 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.98768834059513777</v>
       </c>
     </row>
@@ -14251,7 +19203,7 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99026806874157025</v>
       </c>
     </row>
@@ -14260,7 +19212,7 @@
         <v>623</v>
       </c>
       <c r="B624">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99254615164132209</v>
       </c>
     </row>
@@ -14269,7 +19221,7 @@
         <v>624</v>
       </c>
       <c r="B625">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99452189536827318</v>
       </c>
     </row>
@@ -14278,7 +19230,7 @@
         <v>625</v>
       </c>
       <c r="B626">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99619469809174555</v>
       </c>
     </row>
@@ -14287,7 +19239,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.9975640502598242</v>
       </c>
     </row>
@@ -14296,7 +19248,7 @@
         <v>627</v>
       </c>
       <c r="B628">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99862953475457383</v>
       </c>
     </row>
@@ -14305,7 +19257,7 @@
         <v>628</v>
       </c>
       <c r="B629">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99939082701909565</v>
       </c>
     </row>
@@ -14314,7 +19266,7 @@
         <v>629</v>
       </c>
       <c r="B630">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99984769515639127</v>
       </c>
     </row>
@@ -14323,7 +19275,7 @@
         <v>630</v>
       </c>
       <c r="B631">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
     </row>
@@ -14332,7 +19284,7 @@
         <v>631</v>
       </c>
       <c r="B632">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99984769515639127</v>
       </c>
     </row>
@@ -14341,7 +19293,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99939082701909576</v>
       </c>
     </row>
@@ -14350,7 +19302,7 @@
         <v>633</v>
       </c>
       <c r="B634">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99862953475457383</v>
       </c>
     </row>
@@ -14359,7 +19311,7 @@
         <v>634</v>
       </c>
       <c r="B635">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.9975640502598242</v>
       </c>
     </row>
@@ -14368,7 +19320,7 @@
         <v>635</v>
       </c>
       <c r="B636">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99619469809174555</v>
       </c>
     </row>
@@ -14377,7 +19329,7 @@
         <v>636</v>
       </c>
       <c r="B637">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99452189536827329</v>
       </c>
     </row>
@@ -14386,7 +19338,7 @@
         <v>637</v>
       </c>
       <c r="B638">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99254615164132209</v>
       </c>
     </row>
@@ -14395,7 +19347,7 @@
         <v>638</v>
       </c>
       <c r="B639">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.99026806874157036</v>
       </c>
     </row>
@@ -14404,7 +19356,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.98768834059513788</v>
       </c>
     </row>
@@ -14413,7 +19365,7 @@
         <v>640</v>
       </c>
       <c r="B641">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.98480775301220813</v>
       </c>
     </row>
@@ -14422,7 +19374,7 @@
         <v>641</v>
       </c>
       <c r="B642">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.98162718344766398</v>
       </c>
     </row>
@@ -14431,7 +19383,7 @@
         <v>642</v>
       </c>
       <c r="B643">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="B643:B706" si="10">SIN($A:$A*PI()/180)</f>
         <v>-0.9781476007338058</v>
       </c>
     </row>
@@ -14782,7 +19734,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <f t="shared" ref="B682:B721" si="11">SIN($A:$A*PI()/180)</f>
+        <f t="shared" si="10"/>
         <v>-0.62932039104983806</v>
       </c>
     </row>
@@ -14791,7 +19743,7 @@
         <v>682</v>
       </c>
       <c r="B683">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.61566147532565973</v>
       </c>
     </row>
@@ -14800,7 +19752,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.60181502315204782</v>
       </c>
     </row>
@@ -14809,7 +19761,7 @@
         <v>684</v>
       </c>
       <c r="B685">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.58778525229247347</v>
       </c>
     </row>
@@ -14818,7 +19770,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.57357643635104738</v>
       </c>
     </row>
@@ -14827,7 +19779,7 @@
         <v>686</v>
       </c>
       <c r="B687">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.55919290347074602</v>
       </c>
     </row>
@@ -14836,7 +19788,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.5446390350150272</v>
       </c>
     </row>
@@ -14845,7 +19797,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.52991926423320601</v>
       </c>
     </row>
@@ -14854,7 +19806,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.51503807491005626</v>
       </c>
     </row>
@@ -14863,7 +19815,7 @@
         <v>690</v>
       </c>
       <c r="B691">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.49999999999999989</v>
       </c>
     </row>
@@ -14872,7 +19824,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.48480962024633789</v>
       </c>
     </row>
@@ -14881,7 +19833,7 @@
         <v>692</v>
       </c>
       <c r="B693">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.46947156278589103</v>
       </c>
     </row>
@@ -14890,7 +19842,7 @@
         <v>693</v>
       </c>
       <c r="B694">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.45399049973954803</v>
       </c>
     </row>
@@ -14899,7 +19851,7 @@
         <v>694</v>
       </c>
       <c r="B695">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.43837114678907801</v>
       </c>
     </row>
@@ -14908,7 +19860,7 @@
         <v>695</v>
       </c>
       <c r="B696">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.42261826174069944</v>
       </c>
     </row>
@@ -14917,7 +19869,7 @@
         <v>696</v>
       </c>
       <c r="B697">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.40673664307580121</v>
       </c>
     </row>
@@ -14926,7 +19878,7 @@
         <v>697</v>
       </c>
       <c r="B698">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.39073112848927244</v>
       </c>
     </row>
@@ -14935,7 +19887,7 @@
         <v>698</v>
       </c>
       <c r="B699">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.37460659341591174</v>
       </c>
     </row>
@@ -14944,7 +19896,7 @@
         <v>699</v>
       </c>
       <c r="B700">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.35836794954530099</v>
       </c>
     </row>
@@ -14953,7 +19905,7 @@
         <v>700</v>
       </c>
       <c r="B701">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.34202014332567049</v>
       </c>
     </row>
@@ -14962,7 +19914,7 @@
         <v>701</v>
       </c>
       <c r="B702">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.32556815445715609</v>
       </c>
     </row>
@@ -14971,7 +19923,7 @@
         <v>702</v>
       </c>
       <c r="B703">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.3090169943749479</v>
       </c>
     </row>
@@ -14980,7 +19932,7 @@
         <v>703</v>
       </c>
       <c r="B704">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.29237170472273821</v>
       </c>
     </row>
@@ -14989,7 +19941,7 @@
         <v>704</v>
       </c>
       <c r="B705">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.27563735581700005</v>
       </c>
     </row>
@@ -14998,7 +19950,7 @@
         <v>705</v>
       </c>
       <c r="B706">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.25881904510252096</v>
       </c>
     </row>
@@ -15007,7 +19959,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B707:B721" si="11">SIN($A:$A*PI()/180)</f>
         <v>-0.24192189559966895</v>
       </c>
     </row>
@@ -15149,8 +20101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21649,4 +26601,1674 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>TAN($A:$A)</f>
+        <v>1.5574077246549023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">TAN($A:$A)</f>
+        <v>-2.1850398632615189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>-0.1425465430742778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.1578212823495775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>-3.3805150062465859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>-0.29100619138474915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.87144798272431878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-6.799711455220379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>-0.45231565944180985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.64836082745908663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>-225.95084645419516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>-0.63585992866158081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.46302113293648961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>7.2446066160948055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>-0.85599340090851872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.30063224202390337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3.4939156454748401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>-1.1373137123376869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.15158947061240008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2.2371609442247422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>-1.5274985276366035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>8.8516560416844609E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.5881530833912738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>-2.1348966977217008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>-0.13352640702153587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.1787535542062797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>-3.2737038004281191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>-0.28142960456426525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.88714284379821506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>-6.4053311966462756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>-0.44169556802069798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.66100604148376307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>-75.313014800085085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>-0.62349896271622551</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.473814720414451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>7.7504709056991477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>-0.84077125540275965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.31030966099480101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>3.6145544071015352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>-1.1172149309238959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.16065669868064283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>2.2913879924374863</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>-1.4983873388551707</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>1.7704699278685773E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>1.6197751905438615</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>-2.0866135311213818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>-0.1245275681327372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>1.2001272431162864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>-3.1729085521591909</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>-0.27190061199763077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.90308614937543108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>-6.0532723827928381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>-0.43115819671956412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.67380010064805984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>-45.183087910521131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>-0.6112736881917098</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.48469922679209587</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>8.3308568524904576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>-0.8257740091968151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.32004038937956297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>3.7431679442724195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>-1.0975097786622852</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.16974975208268753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>2.3478603091954366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>-1.4700382576631723</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B91" si="1">TAN($A:$A)</f>
+        <v>2.6560517776039391E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>1.6523172640102353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>-2.0400815980159464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>-0.11554854579453279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>1.2219599181369434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>-3.0776204031933601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>-0.26241737750193517</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>0.91928640440360776</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>-5.7370225392789989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>-0.42070095062112434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>0.68674768935152275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>-32.268575775934416</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>-0.59917999834111513</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>0.49567753318135577</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>9.0036549456070798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>-0.81099441583189424</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>0.32982640650767975</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>3.880596310384246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>-1.0781838051640156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>0.17887017243876716</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>2.4067297096422102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>-1.4424174716642324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>3.5420501339376929E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>1.6858253705060158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>-1.9952004122082421</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>_xlfn.COT($A:$A)</f>
+        <v>0.64209261593433065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">_xlfn.COT($A:$A)</f>
+        <v>-0.45765755436028577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>-7.0152525514345339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.86369115445061673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>-0.29581291553274552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>-3.4363530041801278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.1475154224051356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-0.14706506394948049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>-2.2108454109991951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.5423510453569202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>-4.4257413313241135E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>-1.5726734063976893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.1597286362675918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.13803371984040846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>-1.1682333052318372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3.3263231956354491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.28621183264546018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>-0.87926487577869261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>6.5967642472801113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.4469951089489167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>-0.65466511548605755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>112.97321035643191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.62966222240027581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>-0.46840673886805423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>-7.4891553087226752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.84835375166555116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>-0.30546441002671798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>-3.5532864481271984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.1272141876482913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>-0.15611995216165922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>-2.2640027937820282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1.5128454768057729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>-1.3277917537286932E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>-1.6038519064146899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2.1105296161446585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.12902441827949715</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>-1.189384144110593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>3.2225873883338561</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.27665927452504085</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>-0.89508291763791281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>6.224452563835035</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.43641670607527289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>-0.66738417635325253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>56.482179350195118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.61736962378355509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>-0.47924543049549906</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>-8.0303503472747</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.83324497942682307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>-0.31516823871885358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>-3.677814450850569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>1.1073140704146487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>-0.16519990127036435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>-2.3193343130396857</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>1.4841196952007008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>-2.2132174807980409E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>-1.6359284217814665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>2.0631351252989192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.12003567192503808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>-1.2109850744426371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>3.1246056222423082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.2671533884901271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>-0.91115361288066488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>5.8910248040473467</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.42591971766100489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>-0.6802544048000746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B91" si="1">_xlfn.COT($A:$A)</f>
+        <v>37.649868441273902</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>0.60521064675736846</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>-0.49017647184923213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>-8.6543711400590837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>0.81835744786510367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>-0.32492636160144805</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>-3.8107232437098251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>1.0878002711774637</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>-0.17430644435391657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>-2.3769853586582026</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>1.4561388636695274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>-3.0989901969760626E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>-1.6689475662882471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>2.0174406404538927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>0.11106600664299159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>-1.2330541129241062</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>3.0318979325771958</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>0.25769235447759903</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>-0.92748564318110671</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>5.5906470395019676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>0.4155015812509591</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>-0.69328056519325154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>28.232237325458215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>0.5931812496687251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>-0.50120278338015323</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Projects/三角函数曲线.xlsx
+++ b/Projects/三角函数曲线.xlsx
@@ -143,7 +143,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4540,11 +4539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1264760336"/>
-        <c:axId val="-1264758160"/>
+        <c:axId val="1865080064"/>
+        <c:axId val="1865074080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1264760336"/>
+        <c:axId val="1865080064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4571,8 +4570,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4595,12 +4595,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1264758160"/>
+        <c:crossAx val="1865074080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1264758160"/>
+        <c:axId val="1865074080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4656,7 +4656,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1264760336"/>
+        <c:crossAx val="1865080064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9120,11 +9120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1512403904"/>
-        <c:axId val="-1512402816"/>
+        <c:axId val="1865084960"/>
+        <c:axId val="1865070272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1512403904"/>
+        <c:axId val="1865084960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9151,8 +9151,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -9175,12 +9176,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1512402816"/>
+        <c:crossAx val="1865070272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1512402816"/>
+        <c:axId val="1865070272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9236,7 +9237,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1512403904"/>
+        <c:crossAx val="1865084960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9934,11 +9935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1510428080"/>
-        <c:axId val="-1510429168"/>
+        <c:axId val="1865074624"/>
+        <c:axId val="1865076256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1510428080"/>
+        <c:axId val="1865074624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9992,12 +9993,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510429168"/>
+        <c:crossAx val="1865076256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1510429168"/>
+        <c:axId val="1865076256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -10053,7 +10054,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510428080"/>
+        <c:crossAx val="1865074624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -10746,11 +10747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1996088912"/>
-        <c:axId val="-1996094896"/>
+        <c:axId val="1865081152"/>
+        <c:axId val="1865073536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1996088912"/>
+        <c:axId val="1865081152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10777,8 +10778,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -10801,12 +10803,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1996094896"/>
+        <c:crossAx val="1865073536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1996094896"/>
+        <c:axId val="1865073536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10862,7 +10864,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1996088912"/>
+        <c:crossAx val="1865081152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
